--- a/ONCHO/black flies capture/oncho_2_capture.xlsx
+++ b/ONCHO/black flies capture/oncho_2_capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\generic-espen-collect-form\ONCHO\black flies capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E4C2AF-E3FD-44B9-9C1A-CC10041DA67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675575BE-EAFA-4B41-8BFA-6525FA2CEB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,15 +107,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{2}$') and . &gt; 9 and . &lt; 91</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 9 and 91</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 9 et 91</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -279,6 +270,15 @@
   </si>
   <si>
     <t>La longueur des initiales doit être comprise entre 2 et 5</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 9 and 99</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à deux chiffres entre 9 et 99</t>
   </si>
 </sst>
 </file>
@@ -763,10 +763,10 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -840,51 +840,51 @@
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="9" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="14"/>
@@ -894,24 +894,24 @@
       <c r="K3" s="7"/>
       <c r="L3" s="12"/>
       <c r="M3" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="14"/>
@@ -926,17 +926,17 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="12"/>
@@ -946,7 +946,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="14"/>
@@ -973,57 +973,57 @@
       <c r="K6" s="7"/>
       <c r="L6" s="12"/>
       <c r="M6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="7"/>
@@ -1033,24 +1033,24 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="14"/>
@@ -1068,7 +1068,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -1089,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1182,184 +1182,184 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
         <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1402,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>20200601</v>

--- a/ONCHO/black flies capture/oncho_2_capture.xlsx
+++ b/ONCHO/black flies capture/oncho_2_capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\generic-espen-collect-form\ONCHO\black flies capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675575BE-EAFA-4B41-8BFA-6525FA2CEB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30B8CF4-77B4-4465-810D-32DED37D14BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
   <si>
     <t>form_title</t>
   </si>
@@ -275,10 +275,10 @@
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
-    <t>The code must be a two-digit number between 9 and 99</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 9 et 99</t>
+    <t>The code must be a two-digit number between 9 and 1000</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à deux chiffres entre 9 et 1000</t>
   </si>
 </sst>
 </file>
